--- a/S3_Table.xlsx
+++ b/S3_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/wmj412_ku_dk/Documents/Documents/Rebuttal_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{2469E2D0-9C67-494D-A4BB-25A20CD53E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2AFB7A-FC03-403F-86EA-04EFCFE13B73}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2469E2D0-9C67-494D-A4BB-25A20CD53E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9691BCB2-4CCD-4BD5-A728-05DF698F80CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9606D657-1099-4052-AEEC-FB558C9B27BA}"/>
   </bookViews>
@@ -332,9 +332,6 @@
     <t>CP137837.1</t>
   </si>
   <si>
-    <t>S3 Table: Top BLAST result for the reads which Kaiju classified as one of the ID'ed taxa by Reynoso-García et al.</t>
-  </si>
-  <si>
     <t>SRR24300527.139080</t>
   </si>
   <si>
@@ -528,6 +525,9 @@
   </si>
   <si>
     <t>MH148318.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3 Table: Top BLAST result for the reads which Kaiju classified as one of the ID'ed taxa by Reynoso-García et al. in the Puerto Rican samples </t>
   </si>
 </sst>
 </file>
@@ -719,6 +719,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,9 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F20B6-E6D6-42C0-9A05-CC741F4125BA}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1063,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1109,7 +1111,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
@@ -1147,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
@@ -1185,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>26</v>
@@ -1223,7 +1225,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>41</v>
@@ -1261,7 +1263,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>41</v>
@@ -1299,7 +1301,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>41</v>
@@ -1337,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>47</v>
@@ -1375,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>49</v>
@@ -1413,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>26</v>
@@ -1451,7 +1453,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>26</v>
@@ -1489,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
@@ -1519,7 +1521,7 @@
         <v>1587</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1527,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>47</v>
@@ -1565,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>63</v>
@@ -1603,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>63</v>
@@ -1641,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>69</v>
@@ -1679,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>26</v>
@@ -1709,7 +1711,7 @@
         <v>1413</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1717,7 +1719,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>80</v>
@@ -1755,7 +1757,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>26</v>
@@ -1793,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>26</v>
@@ -1823,7 +1825,7 @@
         <v>1389</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1831,7 +1833,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>63</v>
@@ -1861,7 +1863,7 @@
         <v>6563</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1869,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>26</v>
@@ -1907,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>26</v>
@@ -1937,7 +1939,7 @@
         <v>1389</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1945,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>19</v>
@@ -1975,7 +1977,7 @@
         <v>2349492</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1983,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>63</v>
@@ -2021,7 +2023,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>66</v>
@@ -2059,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>13</v>
@@ -2097,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>19</v>
@@ -2127,7 +2129,7 @@
         <v>751</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2135,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>13</v>
@@ -2165,7 +2167,7 @@
         <v>25754854</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2173,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>26</v>
@@ -2211,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>26</v>
@@ -2249,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>26</v>
@@ -2287,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>42</v>
@@ -2325,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>49</v>
@@ -2363,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>26</v>
@@ -2401,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>41</v>
@@ -2439,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>26</v>
@@ -2477,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>49</v>
@@ -2507,7 +2509,7 @@
         <v>50316797</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2515,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>66</v>
@@ -2553,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>26</v>
@@ -2583,7 +2585,7 @@
         <v>1328</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2591,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>26</v>
@@ -2621,7 +2623,7 @@
         <v>1389</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2629,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>77</v>
@@ -2667,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>63</v>
@@ -2705,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>26</v>
@@ -2735,7 +2737,7 @@
         <v>6085354</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2743,7 +2745,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>26</v>
@@ -2781,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>63</v>
@@ -2819,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>77</v>
@@ -2857,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>63</v>
@@ -2895,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>26</v>
@@ -2925,7 +2927,7 @@
         <v>1328</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2933,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>94</v>
@@ -2963,7 +2965,7 @@
         <v>486</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2971,7 +2973,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>13</v>
@@ -3001,7 +3003,7 @@
         <v>39635500</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3009,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>19</v>
@@ -3039,7 +3041,7 @@
         <v>470</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3047,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>13</v>
@@ -3077,7 +3079,7 @@
         <v>39635500</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3085,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>26</v>
@@ -3123,7 +3125,7 @@
         <v>16</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>26</v>
@@ -3161,7 +3163,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>42</v>
@@ -3199,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>49</v>
@@ -3237,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>26</v>
@@ -3275,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>41</v>
@@ -3305,7 +3307,7 @@
         <v>36565018</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3313,7 +3315,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>26</v>
@@ -3351,7 +3353,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>49</v>
@@ -3381,7 +3383,7 @@
         <v>33513057</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3389,7 +3391,7 @@
         <v>16</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>66</v>
@@ -3427,7 +3429,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>26</v>
@@ -3457,7 +3459,7 @@
         <v>1328</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3465,7 +3467,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>26</v>
@@ -3495,7 +3497,7 @@
         <v>376</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3503,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>77</v>
@@ -3541,7 +3543,7 @@
         <v>16</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>63</v>
@@ -3579,7 +3581,7 @@
         <v>16</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>26</v>
@@ -3617,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>26</v>
@@ -3647,7 +3649,7 @@
         <v>1389</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3655,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>63</v>
@@ -3693,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>77</v>
@@ -3731,7 +3733,7 @@
         <v>16</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>26</v>
@@ -3761,7 +3763,7 @@
         <v>1328</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3769,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>94</v>
@@ -3799,7 +3801,7 @@
         <v>486</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3807,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>26</v>
@@ -3845,7 +3847,7 @@
         <v>16</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>63</v>

--- a/S3_Table.xlsx
+++ b/S3_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmj412\OneDrive - University of Copenhagen\Documents\Rebuttal_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D320E-F355-460E-B379-888A62B9B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C0507-459E-481E-8553-C0550B5F584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9606D657-1099-4052-AEEC-FB558C9B27BA}"/>
   </bookViews>
@@ -386,9 +386,6 @@
     <t>MH148318.1</t>
   </si>
   <si>
-    <t xml:space="preserve">S3 Table: Top BLAST result for the reads which Kaiju classified as one of the ID'ed taxa by Reynoso-García et al. in the Puerto Rican samples </t>
-  </si>
-  <si>
     <t>Top Blast hit</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>Litorilinea aerophila</t>
+  </si>
+  <si>
+    <t>S3 Table: Top BLAST results for the New World plant reads identified by Kaiju in the Caribbean samples.</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -963,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>3</v>
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="14">
         <v>473</v>
@@ -1294,7 +1294,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="14">
         <v>298</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="14">
         <v>636</v>
@@ -1458,7 +1458,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="14">
         <v>418</v>
@@ -1540,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="14">
         <v>327</v>
@@ -1868,7 +1868,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" s="14">
         <v>276</v>
@@ -1991,7 +1991,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="14">
         <v>276</v>
@@ -2073,7 +2073,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="14">
         <v>272</v>
@@ -2196,7 +2196,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="14">
         <v>268</v>
@@ -2237,7 +2237,7 @@
         <v>51</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="14">
         <v>464</v>
@@ -2319,7 +2319,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="14">
         <v>337</v>
@@ -2483,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="14">
         <v>348</v>
@@ -2524,7 +2524,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="14">
         <v>191</v>
@@ -2811,7 +2811,7 @@
         <v>34</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="14">
         <v>56.5</v>
@@ -3098,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="14">
         <v>361</v>
@@ -3139,7 +3139,7 @@
         <v>51</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="14">
         <v>455</v>
@@ -3303,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F60" s="14">
         <v>427</v>
